--- a/Hardware/Electrical Components/Power V7.2/BOM OPEnS Power 7.2.xlsx
+++ b/Hardware/Electrical Components/Power V7.2/BOM OPEnS Power 7.2.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bao Nguyen\Desktop\OpenSLab\eDNA\Power Board\Power Board - Modified for screw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bao Nguyen\Documents\GitHub\eDNA\Hardware\Electrical Components\Power V7.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EE7946-E3E4-48EC-AFFB-B6AC7CF51B89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39803281-78A1-4BE9-9738-C969EC1918B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7176" yWindow="2076" windowWidth="17280" windowHeight="9468" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32445" yWindow="2610" windowWidth="21600" windowHeight="11775" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Component</t>
   </si>
@@ -48,9 +54,6 @@
     <t>Switching Regulator</t>
   </si>
   <si>
-    <t>IC2</t>
-  </si>
-  <si>
     <t>LM2575Sx-5.0/NOPBCT-ND</t>
   </si>
   <si>
@@ -81,15 +84,6 @@
     <t>732-1690-1-ND</t>
   </si>
   <si>
-    <t>Diode General Thru</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>641-1310-1-ND</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>S1A-FDICT-ND</t>
   </si>
   <si>
-    <t>IC1</t>
-  </si>
-  <si>
     <t>MOSFET N-Type</t>
   </si>
   <si>
@@ -123,9 +114,6 @@
     <t>BZD27C4V3P-E3-08GICT-ND</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>296-17617-1-ND</t>
   </si>
   <si>
@@ -153,9 +141,6 @@
     <t>Resistor 130k 1%</t>
   </si>
   <si>
-    <t>Need to change to SMD</t>
-  </si>
-  <si>
     <t>Capacitor 100 uF 16V</t>
   </si>
   <si>
@@ -204,16 +189,36 @@
     <t>RNCP1206FTD1K50CT-ND</t>
   </si>
   <si>
-    <t>D2</t>
+    <t>D2, D4</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>OSHPARK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -319,24 +324,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -618,393 +626,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1"/>
-    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.75" style="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="1"/>
+    <col min="7" max="16384" width="10.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.04</v>
+      </c>
+      <c r="F2">
+        <f>E2*C2</f>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="0">E3*C3</f>
+        <v>1.44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F17" si="1">E8*C8</f>
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8.77</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="F18" s="15">
+        <f>10.45/3</f>
+        <v>3.4833333333333329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
+      <c r="F20" s="15">
+        <f>SUM(F2:F18)</f>
+        <v>23.423333333333332</v>
+      </c>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J35" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D17" r:id="rId15" xr:uid="{6C675DE2-DA09-485A-8CC0-FC86B7F6667D}"/>
-    <hyperlink ref="D18" r:id="rId16" xr:uid="{137BC522-E25B-4700-AABA-E96A5915D4EB}"/>
-    <hyperlink ref="D12" r:id="rId17" xr:uid="{CE22C73C-F728-4AF0-AD01-F074FFB7A047}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{6C675DE2-DA09-485A-8CC0-FC86B7F6667D}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{137BC522-E25B-4700-AABA-E96A5915D4EB}"/>
+    <hyperlink ref="A11" r:id="rId16" xr:uid="{CE22C73C-F728-4AF0-AD01-F074FFB7A047}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>